--- a/biology/Zoologie/Gérygone_des_mangroves/Gérygone_des_mangroves.xlsx
+++ b/biology/Zoologie/Gérygone_des_mangroves/Gérygone_des_mangroves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rygone_des_mangroves</t>
+          <t>Gérygone_des_mangroves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerygone levigaster
 La Gérygone des mangroves (Gerygone levigaster) est une espèce de passereau de  la famille des Acanthizidae originaire d'Australie et de Nouvelle-Guinée.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rygone_des_mangroves</t>
+          <t>Gérygone_des_mangroves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont de petits oiseaux aux ailes arrondies, mesurant 9 à 11 cm de long et pesant environ 6 g. Le plumage est gris sur le dessus avec la gorge, le ventre, les flancs et le croupion blanc. Il a une bande blanche bien distincte sur l'œil, distinctes. Le bec et les pattes sont noirs et l'iris est rouge. La sous-espèce G. l. pallida est légèrement brune sur le dessus et G. l. cantator est légèrement plus grande et plus lourde. Le chant, qui est similaire à celui de la Gérygone à queue blanche, a été décrit comme « doux, riche et mélodieux ».
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rygone_des_mangroves</t>
+          <t>Gérygone_des_mangroves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce se nourrit d'insectes (coléoptères, sauterelles, guêpes, fourmis et papillons) dans le feuillage des arbres. Elle est moins capable d'attraper des proies en vol que les autres gérygones, mais pour se nourrir ils peuvent se joindre à des Zostérops, des Méliphages et des Rhipidures. Elle se nourrit principalement dans la canopée mais peut fourrager entre les racines des arbres.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9rygone_des_mangroves</t>
+          <t>Gérygone_des_mangroves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se reproduit toute l'année, bien que principalement au printemps et en été dans l'est de l'Australie et pendant la saison sèche dans le nord. La femelle construit un nid ovale en forme de dôme. Il est construit à partir de racines, d'herbes, de toiles d'araignée, de mousses, d'algues et d'écorces et est suspendu à un arbre. La femelle y pond deux à trois œufs qui sont couvés pendant 14 à 17 jours. Les deux parents nourrissent les poussins pendant 14 à 17 autres jours. Un certain nombre d'espèces de coucous parasitent les couvées de cette espèce.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>G%C3%A9rygone_des_mangroves</t>
+          <t>Gérygone_des_mangroves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a trois sous-espèces de Gérygone des mangroves :
 G. l. pallida qui vit dans le sud de la Nouvelle-Guinée,
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>G%C3%A9rygone_des_mangroves</t>
+          <t>Gérygone_des_mangroves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">On pense que l'espèce forme une super-espèce avec la Gérygone mélanésienne et la Gérygone à queue blanche.
 </t>
